--- a/pont sens/article analyse donnees reelles/FnQ_B.xlsx
+++ b/pont sens/article analyse donnees reelles/FnQ_B.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DE25A-C5CF-4EBD-8738-2E527CD054DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEABB6E-D8B0-4618-A34F-83DF3022AC7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,26 +377,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>
